--- a/Paper/graphs.xlsx
+++ b/Paper/graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MeltdownAttack\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399AF6DF-367C-4B67-8026-1A9732210CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AA8F7D-03A3-4781-9BC5-BC7307D9AB17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" activeTab="2" xr2:uid="{A4E5F0FF-BC91-4E7C-BFFE-A6EC0E972353}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Success Rate (%)</t>
   </si>
@@ -1285,37 +1285,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4515,7 +4485,7 @@
   <dimension ref="B4:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C26"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Paper/graphs.xlsx
+++ b/Paper/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MeltdownAttack\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AA8F7D-03A3-4781-9BC5-BC7307D9AB17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F711F709-D038-4F9F-8BAF-ED8599FF7891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" activeTab="2" xr2:uid="{A4E5F0FF-BC91-4E7C-BFFE-A6EC0E972353}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" activeTab="1" xr2:uid="{A4E5F0FF-BC91-4E7C-BFFE-A6EC0E972353}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1336,16 +1336,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>68.5</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.7</c:v>
+                  <c:v>57.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.7</c:v>
+                  <c:v>60.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.7</c:v>
+                  <c:v>76.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4363,10 +4363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286FAA71-7C08-47BE-B3D3-CA3258A51712}">
-  <dimension ref="B5:C10"/>
+  <dimension ref="B5:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4416,6 +4416,12 @@
         <v>70.7</v>
       </c>
     </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f>AVERAGE(C7:C10)</f>
+        <v>66.649999999999991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4424,10 +4430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4DA99-109B-4790-98AA-F21AAD2A2EC5}">
-  <dimension ref="B6:C11"/>
+  <dimension ref="B6:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4474,6 +4480,12 @@
         <v>76.7</v>
       </c>
     </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f>AVERAGE(C8:C11)</f>
+        <v>63.825000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4484,7 +4496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E599099-F474-4D4D-965C-539A5D08111E}">
   <dimension ref="B4:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -4546,7 +4558,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>68.5</v>
+        <v>60.1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4554,7 +4566,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>61.7</v>
+        <v>57.8</v>
       </c>
       <c r="C24">
         <v>0.1</v>
@@ -4562,7 +4574,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>65.7</v>
+        <v>60.7</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4570,7 +4582,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>70.7</v>
+        <v>76.7</v>
       </c>
       <c r="C26">
         <v>0.1</v>
